--- a/wantedtest/import/language.xlsx
+++ b/wantedtest/import/language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyun/Workspace/woo/wantedtest/wantedtest/import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32676FA9-7FBE-C945-A49B-19EE6036983B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872C5D94-BFCB-674E-A0B7-83FF847D67EF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{9C737D7C-F698-2F4E-8359-9C7C8A1405CE}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
